--- a/results/allele_freq.xlsx
+++ b/results/allele_freq.xlsx
@@ -98,22 +98,22 @@
     <t>B*57</t>
   </si>
   <si>
+    <t>B*27</t>
+  </si>
+  <si>
+    <t>B*42</t>
+  </si>
+  <si>
+    <t>B*45</t>
+  </si>
+  <si>
+    <t>B*55</t>
+  </si>
+  <si>
     <t>B*58</t>
   </si>
   <si>
-    <t>B*27</t>
-  </si>
-  <si>
     <t>B*37</t>
-  </si>
-  <si>
-    <t>B*42</t>
-  </si>
-  <si>
-    <t>B*45</t>
-  </si>
-  <si>
-    <t>B*55</t>
   </si>
   <si>
     <t>B*46</t>
@@ -237,16 +237,16 @@
         <v>49401.0</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F2" t="n">
         <v>4.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.0</v>
       </c>
       <c r="G2" t="n">
         <v>7.0</v>
@@ -255,7 +255,7 @@
         <v>1.0</v>
       </c>
       <c r="I2" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="J2" t="n">
         <v>8.0</v>
@@ -269,7 +269,7 @@
         <v>38537.0</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3" t="n">
         <v>7.0</v>
@@ -281,7 +281,7 @@
         <v>6.0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H3" t="n">
         <v>1.0</v>
@@ -290,7 +290,7 @@
         <v>9.0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -304,22 +304,22 @@
         <v>2.0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E4" t="n">
         <v>2.0</v>
       </c>
       <c r="F4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I4" t="n">
         <v>4.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.0</v>
       </c>
       <c r="J4" t="n">
         <v>2.0</v>
@@ -336,22 +336,22 @@
         <v>2.0</v>
       </c>
       <c r="D5" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I5" t="n">
         <v>4.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.0</v>
       </c>
       <c r="J5" t="n">
         <v>3.0</v>
@@ -365,28 +365,28 @@
         <v>59855.0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D6" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H6" t="n">
         <v>2.0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="J6" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -397,13 +397,13 @@
         <v>35940.0</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D7" t="n">
         <v>5.0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F7" t="n">
         <v>4.0</v>
@@ -415,7 +415,7 @@
         <v>1.0</v>
       </c>
       <c r="I7" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
@@ -429,16 +429,16 @@
         <v>17492.0</v>
       </c>
       <c r="C8" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D8" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F8" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="G8" t="n">
         <v>2.0</v>
@@ -461,7 +461,7 @@
         <v>82540.0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D9" t="n">
         <v>2.0</v>
@@ -479,7 +479,7 @@
         <v>2.0</v>
       </c>
       <c r="I9" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="J9" t="n">
         <v>10.0</v>
@@ -490,7 +490,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>6969.0</v>
+        <v>17629.0</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -502,19 +502,19 @@
         <v>3.0</v>
       </c>
       <c r="F10" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G10" t="n">
         <v>5.0</v>
       </c>
       <c r="H10" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="I10" t="n">
         <v>1.0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>17629.0</v>
+        <v>24461.0</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -543,7 +543,7 @@
         <v>2.0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J11" t="n">
         <v>3.0</v>
@@ -554,7 +554,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>24461.0</v>
+        <v>33617.0</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -566,7 +566,7 @@
         <v>5.0</v>
       </c>
       <c r="F12" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -578,7 +578,7 @@
         <v>4.0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="13">
@@ -586,19 +586,19 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>33617.0</v>
+        <v>73111.0</v>
       </c>
       <c r="C13" t="n">
         <v>8.0</v>
       </c>
       <c r="D13" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -607,10 +607,10 @@
         <v>2.0</v>
       </c>
       <c r="I13" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="J13" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>73111.0</v>
+        <v>17765.0</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -633,16 +633,16 @@
         <v>1.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H14" t="n">
         <v>3.0</v>
       </c>
       <c r="I14" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="J14" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -650,7 +650,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>17765.0</v>
+        <v>14144.0</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -659,16 +659,16 @@
         <v>3.0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I15" t="n">
         <v>2.0</v>
@@ -682,13 +682,13 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>14144.0</v>
+        <v>58625.0</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
       </c>
       <c r="D16" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E16" t="n">
         <v>0.0</v>
@@ -697,16 +697,16 @@
         <v>1.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H16" t="n">
         <v>1.0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -714,31 +714,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>58625.0</v>
+        <v>11547.0</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
       </c>
       <c r="D17" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E17" t="n">
         <v>0.0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I17" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -746,31 +746,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>11547.0</v>
+        <v>8063.0</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
       </c>
       <c r="D18" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E18" t="n">
         <v>0.0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H18" t="n">
         <v>1.0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -778,10 +778,10 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>8063.0</v>
+        <v>18585.0</v>
       </c>
       <c r="C19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D19" t="n">
         <v>4.0</v>
@@ -790,19 +790,19 @@
         <v>0.0</v>
       </c>
       <c r="F19" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H19" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
@@ -810,10 +810,10 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>18585.0</v>
+        <v>13324.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" t="n">
         <v>2.0</v>
@@ -825,16 +825,16 @@
         <v>2.0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I20" t="n">
         <v>2.0</v>
       </c>
       <c r="J20" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -842,31 +842,31 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>13324.0</v>
+        <v>8473.0</v>
       </c>
       <c r="C21" t="n">
         <v>0.0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E21" t="n">
         <v>0.0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
@@ -874,7 +874,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>8473.0</v>
+        <v>6150.0</v>
       </c>
       <c r="C22" t="n">
         <v>0.0</v>
@@ -892,13 +892,13 @@
         <v>1.0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
@@ -906,7 +906,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>6150.0</v>
+        <v>9771.0</v>
       </c>
       <c r="C23" t="n">
         <v>0.0</v>
@@ -921,10 +921,10 @@
         <v>0.0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H23" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
@@ -938,13 +938,13 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>9771.0</v>
+        <v>15100.0</v>
       </c>
       <c r="C24" t="n">
         <v>0.0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E24" t="n">
         <v>0.0</v>
@@ -962,7 +962,7 @@
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="25">
@@ -970,13 +970,13 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>15100.0</v>
+        <v>6969.0</v>
       </c>
       <c r="C25" t="n">
         <v>0.0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E25" t="n">
         <v>0.0</v>
@@ -988,13 +988,13 @@
         <v>0.0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
